--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_009/summary_statistics.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_009/summary_statistics.xlsx
@@ -585,55 +585,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02354399008674101</v>
+        <v>0.007531106745252127</v>
       </c>
       <c r="C3" t="n">
-        <v>119.3573322158606</v>
+        <v>426.3381789138345</v>
       </c>
       <c r="D3" t="n">
-        <v>551.8766516757187</v>
+        <v>3767.251100243229</v>
       </c>
       <c r="E3" t="n">
-        <v>1.174730158809945e-06</v>
+        <v>8.754905383011718e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006895720542336195</v>
+        <v>0.001825222763873961</v>
       </c>
       <c r="G3" t="n">
-        <v>2.775</v>
+        <v>20.36166666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>2.741666666666666</v>
+        <v>5.16</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4333333333333333</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03860619502637705</v>
+        <v>-0.0169814332877943</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6491126660854704</v>
+        <v>0.7792914213595459</v>
       </c>
       <c r="L3" t="n">
-        <v>1.608072951889142</v>
+        <v>2.614308862849015</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.004626085198896</v>
+        <v>-1.293293879150208</v>
       </c>
       <c r="N3" t="n">
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="P3" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="Q3" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="R3" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="4">
@@ -643,40 +643,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02557897256618787</v>
+        <v>0.01028940357453193</v>
       </c>
       <c r="C4" t="n">
-        <v>76.67584899781062</v>
+        <v>165.6797099121428</v>
       </c>
       <c r="D4" t="n">
-        <v>284.4893610719413</v>
+        <v>1025.76197374917</v>
       </c>
       <c r="E4" t="n">
-        <v>1.788509326684709e-06</v>
+        <v>1.483815880718716e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0007952037212376425</v>
+        <v>0.002112874644749321</v>
       </c>
       <c r="G4" t="n">
-        <v>5.814115640229914</v>
+        <v>27.1577069728392</v>
       </c>
       <c r="H4" t="n">
-        <v>1.396398717605782</v>
+        <v>1.888071386182745</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7448504949901056</v>
+        <v>1.305680764921888</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4522701320609862</v>
+        <v>0.3972575075804203</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3908472019546395</v>
+        <v>0.2674106286949833</v>
       </c>
       <c r="L4" t="n">
-        <v>1.244948260330484</v>
+        <v>1.376250706886553</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3484150515545792</v>
+        <v>0.3709694006549927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -704,52 +704,52 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>16.06362696794252</v>
+        <v>153.2263860420094</v>
       </c>
       <c r="D5" t="n">
-        <v>201.0491251884566</v>
+        <v>1885.399154129648</v>
       </c>
       <c r="E5" t="n">
-        <v>6.004238404674819e-08</v>
+        <v>1.208601184685933e-08</v>
       </c>
       <c r="F5" t="n">
-        <v>5.899177238662871e-05</v>
+        <v>0.0001849019658073571</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.8095253326699551</v>
+        <v>-0.65096123940481</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1243069445853251</v>
+        <v>0.2685131131976508</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.4589621746311657</v>
+        <v>0.09496932292240612</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.175756589776088</v>
+        <v>-2.643408428410771</v>
       </c>
       <c r="N5" t="n">
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="P5" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="Q5" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="R5" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="6">
@@ -762,52 +762,52 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>69.71404681899949</v>
+        <v>310.0457835748865</v>
       </c>
       <c r="D6" t="n">
-        <v>398.1733988534015</v>
+        <v>3211.928057845767</v>
       </c>
       <c r="E6" t="n">
-        <v>2.13280250137487e-07</v>
+        <v>9.871887049705234e-08</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0002281003383546023</v>
+        <v>0.0005951244604467527</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.675</v>
+        <v>4.024999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2489338678203681</v>
+        <v>-0.317750419742706</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3949440358452814</v>
+        <v>0.6112091462968275</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7200724639252915</v>
+        <v>1.817109281674298</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.208305369850685</v>
+        <v>-1.493628180999863</v>
       </c>
       <c r="N6" t="n">
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="P6" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="Q6" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="R6" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="7">
@@ -817,55 +817,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03717472118959107</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>95.85872142601238</v>
+        <v>405.2092415428029</v>
       </c>
       <c r="D7" t="n">
-        <v>473.0715489043135</v>
+        <v>3726.597385507497</v>
       </c>
       <c r="E7" t="n">
-        <v>4.044420901461876e-07</v>
+        <v>2.648089657902743e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004408532433006859</v>
+        <v>0.001110946038333979</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.02871765876439147</v>
+        <v>-0.1025073483899678</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6126722337242978</v>
+        <v>0.7866913729418686</v>
       </c>
       <c r="L7" t="n">
-        <v>1.40832240806996</v>
+        <v>2.470346804028574</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.9977144416678102</v>
+        <v>-1.34576740485236</v>
       </c>
       <c r="N7" t="n">
         <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="P7" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="Q7" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="R7" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="8">
@@ -875,55 +875,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="C8" t="n">
-        <v>140.5520809577223</v>
+        <v>510.9246208110775</v>
       </c>
       <c r="D8" t="n">
-        <v>633.3673353484055</v>
+        <v>4367.508680093947</v>
       </c>
       <c r="E8" t="n">
-        <v>1.440121836856543e-06</v>
+        <v>8.490773232042392e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0008346357544712015</v>
+        <v>0.002033481250259483</v>
       </c>
       <c r="G8" t="n">
-        <v>1.325</v>
+        <v>38.525</v>
       </c>
       <c r="H8" t="n">
-        <v>3.725</v>
+        <v>6.425000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2024045771012301</v>
+        <v>0.2486718998272676</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8489292140200029</v>
+        <v>0.9621899136117137</v>
       </c>
       <c r="L8" t="n">
-        <v>2.146558358510351</v>
+        <v>3.38885290947434</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.7660874406026367</v>
+        <v>-1.013896606112015</v>
       </c>
       <c r="N8" t="n">
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="P8" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="Q8" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="R8" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="9">
@@ -933,55 +933,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1115241635687732</v>
+        <v>0.04911591355599214</v>
       </c>
       <c r="C9" t="n">
-        <v>355.727956367575</v>
+        <v>994.7163625515382</v>
       </c>
       <c r="D9" t="n">
-        <v>1732.834901836803</v>
+        <v>6293.856794235401</v>
       </c>
       <c r="E9" t="n">
-        <v>1.04620614037863e-05</v>
+        <v>7.2147394353096e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0044120186008116</v>
+        <v>0.01281361947571817</v>
       </c>
       <c r="G9" t="n">
-        <v>24.5</v>
+        <v>84.8</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2</v>
+        <v>9.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.258198071138213</v>
+        <v>0.9771280575162457</v>
       </c>
       <c r="K9" t="n">
-        <v>2.233288418875544</v>
+        <v>1.388135951770795</v>
       </c>
       <c r="L9" t="n">
-        <v>5.24631180834759</v>
+        <v>6.684649085958561</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1672803014235083</v>
+        <v>-0.581326327780707</v>
       </c>
       <c r="N9" t="n">
         <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="P9" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="Q9" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="R9" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
